--- a/com.absli.auto/src/main/java/com/absli/testdata/gps/masterpolicymaker/Test Data For TC_MPM_022.xlsx
+++ b/com.absli.auto/src/main/java/com/absli/testdata/gps/masterpolicymaker/Test Data For TC_MPM_022.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gokulnath\Desktop\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gokulnath\git\com.absli.auto\com.absli.auto\src\main\java\com\absli\testdata\gps\masterpolicymaker\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
   <si>
     <t>Client Name</t>
   </si>
@@ -91,9 +91,6 @@
     </r>
   </si>
   <si>
-    <t>Special Conditions</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Benefit Type
 </t>
@@ -130,7 +127,77 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">NRA Letter Received 
+      <t xml:space="preserve">Type Of Client
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Regular Customer/SEZ customer)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Frequency 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Monthly/Semi-Annual/Quarterly/Quartely - Annualy/Single Pay/Annual)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Zone
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(balepete/East Zone/indiranagar/Jayanagar/North Zone/South Chennai/South Zone/test zone/test zone2/West Zone)</t>
+    </r>
+  </si>
+  <si>
+    <t>Minimum Age</t>
+  </si>
+  <si>
+    <t> Maximum Age</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Reinsurer 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(GIC/Munich/GEB/GoDigit/RGA/RGA TEST/test/Test DQ)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Client Organization Address
 </t>
     </r>
     <r>
@@ -146,109 +213,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Retirement Age
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(If select NRA Letter Received 'Yes')</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">NRA Letter Received Date
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(If select NRA Letter Received 'Yes')</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Type Of Client
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Regular Customer/SEZ customer)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Frequency 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Monthly/Semi-Annual/Quarterly/Quartely - Annualy/Single Pay/Annual)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Zone
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(balepete/East Zone/indiranagar/Jayanagar/North Zone/South Chennai/South Zone/test zone/test zone2/West Zone)</t>
-    </r>
-  </si>
-  <si>
-    <t>Minimum Age</t>
-  </si>
-  <si>
-    <t> Maximum Age</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Reinsurer 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(GIC/Munich/GEB/GoDigit/RGA/RGA TEST/test/Test DQ)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Client Organization Address
+      <t xml:space="preserve">Address Details
 </t>
     </r>
     <r>
@@ -264,22 +229,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Address Details
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(Yes/No)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Benefits/Riders
 </t>
     </r>
@@ -329,15 +278,9 @@
     <t>300000</t>
   </si>
   <si>
-    <t>1324</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>xyz</t>
-  </si>
-  <si>
     <t>Employer Employee</t>
   </si>
   <si>
@@ -433,6 +376,9 @@
   </si>
   <si>
     <t>GPS Rider - Total Permanent Disability</t>
+  </si>
+  <si>
+    <t>132430</t>
   </si>
 </sst>
 </file>
@@ -442,7 +388,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,13 +406,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF92D050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -532,32 +471,32 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -842,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ2"/>
+  <dimension ref="A1:AV2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="AV1" sqref="AV1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -860,37 +799,36 @@
     <col min="11" max="11" width="16.5703125" customWidth="1"/>
     <col min="12" max="12" width="18.140625" customWidth="1"/>
     <col min="13" max="13" width="23.42578125" customWidth="1"/>
-    <col min="14" max="14" width="22" customWidth="1"/>
-    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.7109375" customWidth="1"/>
-    <col min="23" max="23" width="14.7109375" customWidth="1"/>
-    <col min="26" max="26" width="18.140625" customWidth="1"/>
-    <col min="29" max="29" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17.7109375" customWidth="1"/>
-    <col min="32" max="32" width="59.140625" customWidth="1"/>
-    <col min="33" max="33" width="33.85546875" customWidth="1"/>
-    <col min="34" max="34" width="20.140625" customWidth="1"/>
-    <col min="35" max="35" width="16.7109375" customWidth="1"/>
-    <col min="36" max="36" width="16.140625" customWidth="1"/>
-    <col min="37" max="37" width="15.7109375" customWidth="1"/>
-    <col min="38" max="38" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="40" max="43" width="15.5703125" customWidth="1"/>
-    <col min="44" max="44" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.7109375" customWidth="1"/>
-    <col min="47" max="47" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="15" customWidth="1"/>
-    <col min="50" max="50" width="16.5703125" customWidth="1"/>
-    <col min="51" max="51" width="13.5703125" customWidth="1"/>
-    <col min="52" max="52" width="15.7109375" customWidth="1"/>
+    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" customWidth="1"/>
+    <col min="22" max="22" width="18.140625" customWidth="1"/>
+    <col min="25" max="25" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.7109375" customWidth="1"/>
+    <col min="28" max="28" width="59.140625" customWidth="1"/>
+    <col min="29" max="29" width="33.85546875" customWidth="1"/>
+    <col min="30" max="30" width="20.140625" customWidth="1"/>
+    <col min="31" max="31" width="16.7109375" customWidth="1"/>
+    <col min="32" max="32" width="16.140625" customWidth="1"/>
+    <col min="33" max="33" width="15.7109375" customWidth="1"/>
+    <col min="34" max="34" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="39" width="15.5703125" customWidth="1"/>
+    <col min="40" max="40" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.7109375" customWidth="1"/>
+    <col min="43" max="43" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15" customWidth="1"/>
+    <col min="46" max="46" width="16.5703125" customWidth="1"/>
+    <col min="47" max="47" width="13.5703125" customWidth="1"/>
+    <col min="48" max="48" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" ht="162.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -973,233 +911,213 @@
         <v>26</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AJ1" s="1" t="s">
         <v>51</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AP1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AQ1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="AT1" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3">
         <v>600002</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F2" s="3">
         <v>9489466321</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="J2" s="7">
         <v>45323</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="R2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="T2" s="3">
+        <v>17</v>
+      </c>
+      <c r="U2" s="3">
+        <v>65</v>
+      </c>
+      <c r="V2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="W2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Z2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC2" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="W2" s="4" t="s">
+      <c r="AD2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="3">
-        <v>17</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>65</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD2" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="AF2" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AH2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="AH2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>56</v>
+      <c r="AI2" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="AJ2" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AK2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AL2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AM2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO2" s="6" t="s">
+      <c r="AL2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN2" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="AO2" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="AP2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AT2" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AR2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="AS2" s="4" t="s">
+      <c r="AU2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AT2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AU2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AV2" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="AW2" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AY2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AZ2" s="6" t="s">
-        <v>50</v>
+      <c r="AV2" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
